--- a/biology/Zoologie/Johnbelkinia/Johnbelkinia.xlsx
+++ b/biology/Zoologie/Johnbelkinia/Johnbelkinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johnbelkinia est un genre de moustiques de la famille des Culicidae originaire d'Amérique centrale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johnbelkinia est un genre de moustiques de la famille des Culicidae originaire d'Amérique centrale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Johnbelkinia a été créé en 1979 par l'entomologiste américain Thomas J. Zavortink (d)[2] avec pour espèce type Johnbelkinia longipes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Johnbelkinia a été créé en 1979 par l'entomologiste américain Thomas J. Zavortink (d) avec pour espèce type Johnbelkinia longipes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Johnbelkinia se rencontrent depuis le Sud du Mexique jusqu'aux côtes de l'Équateur, l'Est de la Bolivie et la partie centrale du Brésil[1]. Elles sont apparemment absentes des îles antillaises à l'exception de Trinidad et Tobago[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Johnbelkinia se rencontrent depuis le Sud du Mexique jusqu'aux côtes de l'Équateur, l'Est de la Bolivie et la partie centrale du Brésil. Elles sont apparemment absentes des îles antillaises à l'exception de Trinidad et Tobago.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (31 août 2021)[3] et ITIS      (31 août 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (31 août 2021) et ITIS      (31 août 2021) :
 Johnbelkinia leucopus (Dyar &amp; Knab, 1906)
-Johnbelkinia longipes (Fabricius, 1805) - espèce type[2]
+Johnbelkinia longipes (Fabricius, 1805) - espèce type
 Johnbelkinia ulopus (Dyar &amp; Knab, 1906)</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Johnbelkinia a été donné en l'honneur de l'entomologiste américain John N. Belkin (d) (1913-1980), l'un des entomologistes leaders dans l'étude des moustiques mais également le mentor et ami de Thomas J. Zavortink[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Johnbelkinia a été donné en l'honneur de l'entomologiste américain John N. Belkin (d) (1913-1980), l'un des entomologistes leaders dans l'étude des moustiques mais également le mentor et ami de Thomas J. Zavortink. 
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Thomas J. Zavortink, « Mosquito studies (Diptera, Culicidae) XXXV. The new sabethine genus Johnbelkinia and a preliminary reclassification of the composite genus Trichoprosopon », Contributions of the American Entomological Institute, AEI (d), vol. 17, no 1,‎ 1979, p. 1–61 (ISSN 0569-4450, lire en ligne)</t>
         </is>
